--- a/suggestion .xlsx
+++ b/suggestion .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghanendra\AppData\Roaming\Skype\My Skype Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\ToadoApp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT PLAN" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Whatsapp" sheetId="3" r:id="rId5"/>
     <sheet name="revision" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="283">
   <si>
     <t>Screen</t>
   </si>
@@ -872,12 +872,18 @@
   </si>
   <si>
     <t>Msg sent/read status with chat list homescreen gp</t>
+  </si>
+  <si>
+    <t>check whatsapp</t>
+  </si>
+  <si>
+    <t>rd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -928,7 +934,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,6 +956,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,7 +1100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1228,6 +1252,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1246,6 +1303,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1257,36 +1320,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1586,12 +1619,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
@@ -1649,7 +1682,7 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>4</v>
       </c>
@@ -1663,7 +1696,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>5</v>
       </c>
@@ -1677,7 +1710,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
         <v>6</v>
       </c>
@@ -1691,7 +1724,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="49">
         <v>7</v>
       </c>
@@ -1719,7 +1752,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="49">
         <v>9</v>
       </c>
@@ -1775,7 +1808,7 @@
         <v>42964</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>13</v>
       </c>
@@ -1789,29 +1822,29 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>14</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="75">
         <v>42968</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
         <v>15</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="63"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
@@ -1820,18 +1853,18 @@
       <c r="B20" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="63"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="73"/>
+      <c r="D20" s="76"/>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="49">
         <v>17</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="63"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
@@ -1840,8 +1873,8 @@
       <c r="B22" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
@@ -1850,32 +1883,32 @@
       <c r="B23" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="63"/>
-    </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="74"/>
+      <c r="D23" s="76"/>
+    </row>
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
         <v>20</v>
       </c>
       <c r="B24" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D24" s="75">
         <v>42969</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
         <v>21</v>
       </c>
       <c r="B25" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="62"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="75"/>
     </row>
     <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="49">
@@ -1884,8 +1917,8 @@
       <c r="B26" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="62"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="75"/>
     </row>
     <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="49">
@@ -1894,8 +1927,8 @@
       <c r="B27" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="62"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="75"/>
     </row>
     <row r="28" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="49">
@@ -1904,20 +1937,20 @@
       <c r="B28" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+    </row>
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="49">
         <v>25</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="75">
         <v>42970</v>
       </c>
     </row>
@@ -1928,8 +1961,8 @@
       <c r="B30" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="63"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="76"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="49">
@@ -1938,8 +1971,8 @@
       <c r="B31" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="63"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="76"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="49">
@@ -1948,18 +1981,18 @@
       <c r="B32" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="63"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="73"/>
+      <c r="D32" s="76"/>
+    </row>
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="49">
         <v>29</v>
       </c>
       <c r="B33" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="63"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="76"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="49">
@@ -1968,8 +2001,8 @@
       <c r="B34" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="63"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="76"/>
     </row>
     <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="49">
@@ -1978,22 +2011,22 @@
       <c r="B35" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="D35" s="62">
+      <c r="D35" s="75">
         <v>42971</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <v>32</v>
       </c>
       <c r="B36" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="63"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="76"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="49">
@@ -2002,8 +2035,8 @@
       <c r="B37" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="63"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="76"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="49">
@@ -2012,28 +2045,28 @@
       <c r="B38" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="63"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="73"/>
+      <c r="D38" s="76"/>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
         <v>35</v>
       </c>
       <c r="B39" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="63"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="73"/>
+      <c r="D39" s="76"/>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="49">
         <v>36</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="63"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="76"/>
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="49">
@@ -2042,92 +2075,92 @@
       <c r="B41" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="63"/>
-    </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="74"/>
+      <c r="D41" s="76"/>
+    </row>
+    <row r="42" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="49">
         <v>38</v>
       </c>
       <c r="B42" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="D42" s="62">
+      <c r="D42" s="75">
         <v>42975</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="49">
         <v>39</v>
       </c>
       <c r="B43" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="63"/>
-    </row>
-    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C43" s="73"/>
+      <c r="D43" s="76"/>
+    </row>
+    <row r="44" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="49">
         <v>40</v>
       </c>
       <c r="B44" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="63"/>
-    </row>
-    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C44" s="73"/>
+      <c r="D44" s="76"/>
+    </row>
+    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="49">
         <v>41</v>
       </c>
       <c r="B45" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="63"/>
-    </row>
-    <row r="46" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C45" s="73"/>
+      <c r="D45" s="76"/>
+    </row>
+    <row r="46" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="49">
         <v>42</v>
       </c>
       <c r="B46" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="63"/>
-    </row>
-    <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C46" s="73"/>
+      <c r="D46" s="76"/>
+    </row>
+    <row r="47" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A47" s="49">
         <v>43</v>
       </c>
       <c r="B47" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="63"/>
-    </row>
-    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C47" s="73"/>
+      <c r="D47" s="76"/>
+    </row>
+    <row r="48" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A48" s="49">
         <v>44</v>
       </c>
       <c r="B48" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="63"/>
-    </row>
-    <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C48" s="73"/>
+      <c r="D48" s="76"/>
+    </row>
+    <row r="49" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="49">
         <v>45</v>
       </c>
       <c r="B49" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="63"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="76"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="49">
@@ -2136,10 +2169,10 @@
       <c r="B50" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="D50" s="62">
+      <c r="D50" s="75">
         <v>42976</v>
       </c>
     </row>
@@ -2150,8 +2183,8 @@
       <c r="B51" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="63"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="76"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="49">
@@ -2160,8 +2193,8 @@
       <c r="B52" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="63"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="76"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="49">
@@ -2170,58 +2203,58 @@
       <c r="B53" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="63"/>
-    </row>
-    <row r="54" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C53" s="73"/>
+      <c r="D53" s="76"/>
+    </row>
+    <row r="54" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A54" s="49">
         <v>50</v>
       </c>
       <c r="B54" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="63"/>
-    </row>
-    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C54" s="73"/>
+      <c r="D54" s="76"/>
+    </row>
+    <row r="55" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="49">
         <v>51</v>
       </c>
       <c r="B55" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="63"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="73"/>
+      <c r="D55" s="76"/>
+    </row>
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="49">
         <v>52</v>
       </c>
       <c r="B56" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="63"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="73"/>
+      <c r="D56" s="76"/>
+    </row>
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="49">
         <v>53</v>
       </c>
       <c r="B57" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="63"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="73"/>
+      <c r="D57" s="76"/>
+    </row>
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="49">
         <v>54</v>
       </c>
       <c r="B58" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="63"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="76"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="49">
@@ -2230,10 +2263,10 @@
       <c r="B59" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="D59" s="62">
+      <c r="D59" s="75">
         <v>42977</v>
       </c>
     </row>
@@ -2244,8 +2277,8 @@
       <c r="B60" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="63"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="76"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="49">
@@ -2254,8 +2287,8 @@
       <c r="B61" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="63"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="76"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="49">
@@ -2264,8 +2297,8 @@
       <c r="B62" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="63"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="76"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="49">
@@ -2274,98 +2307,98 @@
       <c r="B63" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="63"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="73"/>
+      <c r="D63" s="76"/>
+    </row>
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="49">
         <v>60</v>
       </c>
       <c r="B64" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="63"/>
-    </row>
-    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C64" s="74"/>
+      <c r="D64" s="76"/>
+    </row>
+    <row r="65" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="49">
         <v>61</v>
       </c>
       <c r="B65" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="D65" s="62">
+      <c r="D65" s="75">
         <v>42977</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="49">
         <v>62</v>
       </c>
       <c r="B66" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="61"/>
-      <c r="D66" s="62"/>
-    </row>
-    <row r="67" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="C66" s="74"/>
+      <c r="D66" s="75"/>
+    </row>
+    <row r="67" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A67" s="49">
         <v>63</v>
       </c>
       <c r="B67" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="D67" s="62">
+      <c r="D67" s="75">
         <v>42978</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A68" s="49">
         <v>64</v>
       </c>
       <c r="B68" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="62"/>
-    </row>
-    <row r="69" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C68" s="73"/>
+      <c r="D68" s="75"/>
+    </row>
+    <row r="69" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="49">
         <v>65</v>
       </c>
       <c r="B69" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="62"/>
-    </row>
-    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C69" s="73"/>
+      <c r="D69" s="75"/>
+    </row>
+    <row r="70" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A70" s="49">
         <v>66</v>
       </c>
       <c r="B70" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C70" s="61"/>
-      <c r="D70" s="62"/>
-    </row>
-    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C70" s="74"/>
+      <c r="D70" s="75"/>
+    </row>
+    <row r="71" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="49">
         <v>67</v>
       </c>
       <c r="B71" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="D71" s="62">
+      <c r="D71" s="75">
         <v>42979</v>
       </c>
     </row>
@@ -2376,8 +2409,8 @@
       <c r="B72" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="63"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="76"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="49">
@@ -2386,8 +2419,8 @@
       <c r="B73" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="63"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="76"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="49">
@@ -2396,8 +2429,8 @@
       <c r="B74" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="63"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="76"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="49">
@@ -2406,8 +2439,8 @@
       <c r="B75" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="63"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="76"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="49">
@@ -2416,8 +2449,8 @@
       <c r="B76" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="63"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="76"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="49">
@@ -2426,8 +2459,8 @@
       <c r="B77" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="63"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="76"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="49">
@@ -2436,8 +2469,8 @@
       <c r="B78" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="63"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="76"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="49">
@@ -2446,10 +2479,10 @@
       <c r="B79" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="D79" s="62">
+      <c r="D79" s="75">
         <v>42979</v>
       </c>
     </row>
@@ -2460,8 +2493,8 @@
       <c r="B80" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="63"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="76"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
@@ -2470,8 +2503,8 @@
       <c r="B81" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="63"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="76"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="49">
@@ -2480,8 +2513,8 @@
       <c r="B82" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="63"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="76"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="49">
@@ -2490,8 +2523,8 @@
       <c r="B83" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="C83" s="60"/>
-      <c r="D83" s="63"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="76"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="49">
@@ -2500,28 +2533,28 @@
       <c r="B84" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="60"/>
-      <c r="D84" s="63"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="73"/>
+      <c r="D84" s="76"/>
+    </row>
+    <row r="85" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="49">
         <v>81</v>
       </c>
       <c r="B85" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="63"/>
-    </row>
-    <row r="86" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C85" s="73"/>
+      <c r="D85" s="76"/>
+    </row>
+    <row r="86" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A86" s="49">
         <v>82</v>
       </c>
       <c r="B86" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="C86" s="61"/>
-      <c r="D86" s="63"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="76"/>
     </row>
     <row r="87" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="49">
@@ -2530,22 +2563,22 @@
       <c r="B87" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="59" t="s">
+      <c r="C87" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="D87" s="62">
+      <c r="D87" s="75">
         <v>42981</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A88" s="49">
         <v>84</v>
       </c>
       <c r="B88" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="63"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="76"/>
     </row>
     <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="49">
@@ -2554,8 +2587,8 @@
       <c r="B89" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="63"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="76"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="49">
@@ -2564,8 +2597,8 @@
       <c r="B90" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C90" s="60"/>
-      <c r="D90" s="63"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="76"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="49">
@@ -2574,8 +2607,8 @@
       <c r="B91" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="63"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="76"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="49">
@@ -2584,18 +2617,18 @@
       <c r="B92" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="63"/>
-    </row>
-    <row r="93" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C92" s="73"/>
+      <c r="D92" s="76"/>
+    </row>
+    <row r="93" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A93" s="49">
         <v>89</v>
       </c>
       <c r="B93" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="61"/>
-      <c r="D93" s="63"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="76"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="49">
@@ -2613,8 +2646,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C79:C86"/>
-    <mergeCell ref="D79:D86"/>
     <mergeCell ref="C87:C93"/>
     <mergeCell ref="D87:D93"/>
     <mergeCell ref="C29:C34"/>
@@ -2629,15 +2660,17 @@
     <mergeCell ref="D59:D64"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="D35:D41"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="D42:D49"/>
     <mergeCell ref="C50:C58"/>
     <mergeCell ref="D50:D58"/>
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C79:C86"/>
+    <mergeCell ref="D79:D86"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="D24:D28"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="D42:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2646,300 +2679,319 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C27"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.125" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="38.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:6" s="13" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="62" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F2" s="62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="78">
         <v>42976</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F3" s="71"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="53">
         <v>3</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="75"/>
-    </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C4" s="79"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="53">
         <v>12</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="63">
         <v>42977</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D5" s="70"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="53">
         <v>13</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="64">
         <v>42978</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
         <v>15</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="65">
         <v>42978</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F7" s="68"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="53">
         <v>16</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="65">
         <v>42978</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F8" s="68"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
         <v>17</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="65">
         <v>42978</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
         <v>18</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="65">
         <v>42978</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F10" s="68"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
         <v>19</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="65">
         <v>42982</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
         <v>20</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="65">
         <v>42982</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="53">
         <v>21</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="65">
         <v>42982</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
         <v>22</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="65">
         <v>42982</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="53">
         <v>23</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="65">
         <v>42982</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="53">
         <v>24</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="65">
         <v>42983</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <v>25</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="65">
         <v>42983</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
         <v>26</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="65">
         <v>42983</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
         <v>27</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C19" s="65">
         <v>42983</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="53">
         <v>28</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="65">
         <v>42983</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="53">
         <v>30</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="78">
+      <c r="C21" s="65">
         <v>42984</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="53">
         <v>31</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="C22" s="78">
+      <c r="C22" s="65">
         <v>42984</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="53">
         <v>32</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="C23" s="78">
+      <c r="C23" s="65">
         <v>42984</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
         <v>33</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="C24" s="78">
+      <c r="C24" s="65">
         <v>42985</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F24" s="68"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="53">
         <v>35</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="78">
+      <c r="C25" s="65">
         <v>42985</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="53">
         <v>36</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="78">
+      <c r="C26" s="65">
         <v>42985</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="53">
         <v>37</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="C27" s="78">
+      <c r="C27" s="65">
         <v>42985</v>
       </c>
     </row>
@@ -2948,6 +3000,7 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2982,7 +3035,7 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3002,7 +3055,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
@@ -3020,7 +3073,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
@@ -3035,7 +3088,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -3048,7 +3101,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="7"/>
       <c r="E7" t="s">
         <v>16</v>
@@ -3066,7 +3119,7 @@
       <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="80" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
@@ -3074,28 +3127,28 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="80"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="80"/>
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="80"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="80"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="80"/>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="80" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -3104,22 +3157,22 @@
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="80"/>
       <c r="B17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="80"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="80"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
+      <c r="A20" s="80"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="80" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
@@ -3127,7 +3180,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="11" t="s">
         <v>31</v>
       </c>
@@ -3185,11 +3238,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
@@ -3447,12 +3500,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
       <c r="H1" s="35"/>
       <c r="I1" s="36"/>
       <c r="J1" s="38"/>
@@ -3497,7 +3550,7 @@
         <v>73</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="67">
+      <c r="J5" s="82">
         <v>3</v>
       </c>
     </row>
@@ -3516,7 +3569,7 @@
       <c r="I6" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="67"/>
+      <c r="J6" s="82"/>
     </row>
     <row r="7" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D7" s="26"/>
@@ -3531,7 +3584,7 @@
         <v>73</v>
       </c>
       <c r="I7" s="22"/>
-      <c r="J7" s="67"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D8" s="26"/>
@@ -3689,7 +3742,7 @@
         <v>81</v>
       </c>
       <c r="I14" s="22"/>
-      <c r="J14" s="67">
+      <c r="J14" s="82">
         <v>2</v>
       </c>
     </row>
@@ -3704,7 +3757,7 @@
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="67"/>
+      <c r="J15" s="82"/>
       <c r="V15" t="s">
         <v>216</v>
       </c>
@@ -3725,7 +3778,7 @@
         <v>81</v>
       </c>
       <c r="I16" s="22"/>
-      <c r="J16" s="67"/>
+      <c r="J16" s="82"/>
       <c r="L16" t="s">
         <v>213</v>
       </c>
@@ -3758,7 +3811,7 @@
         <v>81</v>
       </c>
       <c r="I17" s="22"/>
-      <c r="J17" s="67"/>
+      <c r="J17" s="82"/>
       <c r="L17" t="s">
         <v>206</v>
       </c>
@@ -3825,7 +3878,7 @@
         <v>81</v>
       </c>
       <c r="I19" s="22"/>
-      <c r="J19" s="67">
+      <c r="J19" s="82">
         <v>2</v>
       </c>
     </row>
@@ -3842,7 +3895,7 @@
         <v>81</v>
       </c>
       <c r="I20" s="22"/>
-      <c r="J20" s="67"/>
+      <c r="J20" s="82"/>
       <c r="L20" t="s">
         <v>208</v>
       </c>
@@ -3864,7 +3917,7 @@
         <v>73</v>
       </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="67"/>
+      <c r="J21" s="82"/>
       <c r="M21" s="41">
         <f>M20/8</f>
         <v>21.125</v>
@@ -3997,7 +4050,7 @@
         <v>73</v>
       </c>
       <c r="I27" s="22"/>
-      <c r="J27" s="67">
+      <c r="J27" s="82">
         <v>5</v>
       </c>
     </row>
@@ -4014,7 +4067,7 @@
         <v>73</v>
       </c>
       <c r="I28" s="22"/>
-      <c r="J28" s="67"/>
+      <c r="J28" s="82"/>
       <c r="M28" s="41">
         <f>M26/8</f>
         <v>27.875</v>
@@ -4043,7 +4096,7 @@
         <v>81</v>
       </c>
       <c r="I29" s="22"/>
-      <c r="J29" s="67"/>
+      <c r="J29" s="82"/>
     </row>
     <row r="30" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D30" s="26"/>
@@ -4058,7 +4111,7 @@
         <v>81</v>
       </c>
       <c r="I30" s="22"/>
-      <c r="J30" s="67"/>
+      <c r="J30" s="82"/>
       <c r="N30" t="s">
         <v>222</v>
       </c>
@@ -4080,7 +4133,7 @@
         <v>81</v>
       </c>
       <c r="I31" s="22"/>
-      <c r="J31" s="67"/>
+      <c r="J31" s="82"/>
     </row>
     <row r="32" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D32" s="26"/>
@@ -4095,7 +4148,7 @@
         <v>81</v>
       </c>
       <c r="I32" s="22"/>
-      <c r="J32" s="67"/>
+      <c r="J32" s="82"/>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33" s="26"/>
@@ -4110,7 +4163,7 @@
         <v>81</v>
       </c>
       <c r="I33" s="22"/>
-      <c r="J33" s="67"/>
+      <c r="J33" s="82"/>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D34" s="26"/>
@@ -4133,7 +4186,7 @@
         <v>81</v>
       </c>
       <c r="I35" s="22"/>
-      <c r="J35" s="67">
+      <c r="J35" s="82">
         <v>4</v>
       </c>
     </row>
@@ -4150,7 +4203,7 @@
         <v>81</v>
       </c>
       <c r="I36" s="22"/>
-      <c r="J36" s="67"/>
+      <c r="J36" s="82"/>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D37" s="26"/>
@@ -4167,7 +4220,7 @@
       <c r="I37" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="J37" s="67"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D38" s="26"/>
@@ -4214,7 +4267,7 @@
       </c>
       <c r="H40" s="26"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="67">
+      <c r="J40" s="82">
         <v>8</v>
       </c>
     </row>
@@ -4229,7 +4282,7 @@
       </c>
       <c r="H41" s="26"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="67"/>
+      <c r="J41" s="82"/>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D42" s="26"/>
@@ -4242,7 +4295,7 @@
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="22"/>
-      <c r="J42" s="67"/>
+      <c r="J42" s="82"/>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D43" s="26"/>
@@ -4255,7 +4308,7 @@
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="22"/>
-      <c r="J43" s="67"/>
+      <c r="J43" s="82"/>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D44" s="26"/>
@@ -4272,7 +4325,7 @@
       <c r="I44" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="J44" s="67"/>
+      <c r="J44" s="82"/>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D45" s="26"/>
@@ -4285,7 +4338,7 @@
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="22"/>
-      <c r="J45" s="67"/>
+      <c r="J45" s="82"/>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D46" s="26"/>
@@ -4323,7 +4376,7 @@
         <v>73</v>
       </c>
       <c r="I48" s="22"/>
-      <c r="J48" s="67">
+      <c r="J48" s="82">
         <v>15</v>
       </c>
     </row>
@@ -4340,7 +4393,7 @@
         <v>81</v>
       </c>
       <c r="I49" s="22"/>
-      <c r="J49" s="67"/>
+      <c r="J49" s="82"/>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D50" s="26"/>
@@ -4355,7 +4408,7 @@
         <v>73</v>
       </c>
       <c r="I50" s="22"/>
-      <c r="J50" s="67"/>
+      <c r="J50" s="82"/>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D51" s="26"/>
@@ -4368,7 +4421,7 @@
       </c>
       <c r="H51" s="26"/>
       <c r="I51" s="22"/>
-      <c r="J51" s="67"/>
+      <c r="J51" s="82"/>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D52" s="26"/>
@@ -4381,7 +4434,7 @@
       </c>
       <c r="H52" s="26"/>
       <c r="I52" s="22"/>
-      <c r="J52" s="67"/>
+      <c r="J52" s="82"/>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D53" s="26"/>
@@ -4394,7 +4447,7 @@
       </c>
       <c r="H53" s="26"/>
       <c r="I53" s="22"/>
-      <c r="J53" s="67"/>
+      <c r="J53" s="82"/>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D54" s="27"/>
@@ -4407,7 +4460,7 @@
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="22"/>
-      <c r="J54" s="67"/>
+      <c r="J54" s="82"/>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D55" s="26"/>
@@ -4432,7 +4485,7 @@
       </c>
       <c r="H56" s="26"/>
       <c r="I56" s="22"/>
-      <c r="J56" s="67">
+      <c r="J56" s="82">
         <v>3</v>
       </c>
     </row>
@@ -4447,7 +4500,7 @@
       </c>
       <c r="H57" s="26"/>
       <c r="I57" s="22"/>
-      <c r="J57" s="67"/>
+      <c r="J57" s="82"/>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D58" s="26"/>
@@ -4460,7 +4513,7 @@
       </c>
       <c r="H58" s="26"/>
       <c r="I58" s="22"/>
-      <c r="J58" s="67"/>
+      <c r="J58" s="82"/>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D59" s="26"/>
@@ -4473,7 +4526,7 @@
       </c>
       <c r="H59" s="26"/>
       <c r="I59" s="22"/>
-      <c r="J59" s="67"/>
+      <c r="J59" s="82"/>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D60" s="26"/>
@@ -4482,7 +4535,7 @@
       <c r="G60" s="30"/>
       <c r="H60" s="26"/>
       <c r="I60" s="22"/>
-      <c r="J60" s="67"/>
+      <c r="J60" s="82"/>
     </row>
     <row r="61" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D61" s="26"/>
@@ -4495,7 +4548,7 @@
       </c>
       <c r="H61" s="26"/>
       <c r="I61" s="22"/>
-      <c r="J61" s="67"/>
+      <c r="J61" s="82"/>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D62" s="26"/>
@@ -4541,7 +4594,7 @@
       </c>
       <c r="H65" s="26"/>
       <c r="I65" s="22"/>
-      <c r="J65" s="67">
+      <c r="J65" s="82">
         <v>2</v>
       </c>
     </row>
@@ -4552,7 +4605,7 @@
       <c r="G66" s="30"/>
       <c r="H66" s="26"/>
       <c r="I66" s="22"/>
-      <c r="J66" s="67"/>
+      <c r="J66" s="82"/>
     </row>
     <row r="67" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D67" s="26"/>
@@ -4565,7 +4618,7 @@
       </c>
       <c r="H67" s="26"/>
       <c r="I67" s="22"/>
-      <c r="J67" s="67"/>
+      <c r="J67" s="82"/>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D68" s="26"/>
@@ -4619,7 +4672,7 @@
         <v>81</v>
       </c>
       <c r="I71" s="22"/>
-      <c r="J71" s="67">
+      <c r="J71" s="82">
         <v>8</v>
       </c>
     </row>
@@ -4636,7 +4689,7 @@
         <v>81</v>
       </c>
       <c r="I72" s="22"/>
-      <c r="J72" s="67"/>
+      <c r="J72" s="82"/>
     </row>
     <row r="73" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D73" s="26"/>
@@ -4651,7 +4704,7 @@
         <v>81</v>
       </c>
       <c r="I73" s="22"/>
-      <c r="J73" s="67"/>
+      <c r="J73" s="82"/>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D74" s="26"/>
@@ -4664,7 +4717,7 @@
       </c>
       <c r="H74" s="26"/>
       <c r="I74" s="22"/>
-      <c r="J74" s="67"/>
+      <c r="J74" s="82"/>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D75" s="26"/>
@@ -4677,7 +4730,7 @@
       </c>
       <c r="H75" s="26"/>
       <c r="I75" s="22"/>
-      <c r="J75" s="67"/>
+      <c r="J75" s="82"/>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D76" s="26"/>
@@ -4690,7 +4743,7 @@
       </c>
       <c r="H76" s="26"/>
       <c r="I76" s="22"/>
-      <c r="J76" s="67"/>
+      <c r="J76" s="82"/>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D77" s="26"/>
@@ -4703,7 +4756,7 @@
       </c>
       <c r="H77" s="26"/>
       <c r="I77" s="22"/>
-      <c r="J77" s="67"/>
+      <c r="J77" s="82"/>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D78" s="26"/>
@@ -4726,7 +4779,7 @@
         <v>81</v>
       </c>
       <c r="I79" s="22"/>
-      <c r="J79" s="67">
+      <c r="J79" s="82">
         <v>3</v>
       </c>
     </row>
@@ -4743,7 +4796,7 @@
         <v>81</v>
       </c>
       <c r="I80" s="22"/>
-      <c r="J80" s="67"/>
+      <c r="J80" s="82"/>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D81" s="26"/>
@@ -4758,7 +4811,7 @@
         <v>81</v>
       </c>
       <c r="I81" s="22"/>
-      <c r="J81" s="67"/>
+      <c r="J81" s="82"/>
     </row>
     <row r="82" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D82" s="26"/>
@@ -4773,7 +4826,7 @@
         <v>81</v>
       </c>
       <c r="I82" s="22"/>
-      <c r="J82" s="67"/>
+      <c r="J82" s="82"/>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D83" s="26"/>
@@ -4788,7 +4841,7 @@
         <v>81</v>
       </c>
       <c r="I83" s="22"/>
-      <c r="J83" s="67"/>
+      <c r="J83" s="82"/>
     </row>
     <row r="84" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D84" s="26"/>
@@ -4803,7 +4856,7 @@
         <v>81</v>
       </c>
       <c r="I84" s="22"/>
-      <c r="J84" s="67"/>
+      <c r="J84" s="82"/>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D85" s="26"/>
@@ -4845,7 +4898,7 @@
         <v>81</v>
       </c>
       <c r="I87" s="22"/>
-      <c r="J87" s="67">
+      <c r="J87" s="82">
         <v>3</v>
       </c>
     </row>
@@ -4862,7 +4915,7 @@
         <v>81</v>
       </c>
       <c r="I88" s="22"/>
-      <c r="J88" s="67"/>
+      <c r="J88" s="82"/>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D89" s="26"/>
@@ -4977,7 +5030,7 @@
         <v>81</v>
       </c>
       <c r="I97" s="22"/>
-      <c r="J97" s="67">
+      <c r="J97" s="82">
         <v>1</v>
       </c>
     </row>
@@ -4994,7 +5047,7 @@
         <v>81</v>
       </c>
       <c r="I98" s="22"/>
-      <c r="J98" s="67"/>
+      <c r="J98" s="82"/>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D99" s="20"/>
@@ -5009,7 +5062,7 @@
         <v>81</v>
       </c>
       <c r="I99" s="22"/>
-      <c r="J99" s="67">
+      <c r="J99" s="82">
         <v>2</v>
       </c>
     </row>
@@ -5026,7 +5079,7 @@
         <v>81</v>
       </c>
       <c r="I100" s="22"/>
-      <c r="J100" s="67"/>
+      <c r="J100" s="82"/>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D101" s="20"/>
@@ -5041,7 +5094,7 @@
         <v>81</v>
       </c>
       <c r="I101" s="22"/>
-      <c r="J101" s="67"/>
+      <c r="J101" s="82"/>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D102" s="20"/>
@@ -5056,7 +5109,7 @@
         <v>81</v>
       </c>
       <c r="I102" s="22"/>
-      <c r="J102" s="67"/>
+      <c r="J102" s="82"/>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D103" s="20"/>
@@ -5071,7 +5124,7 @@
         <v>81</v>
       </c>
       <c r="I103" s="22"/>
-      <c r="J103" s="67"/>
+      <c r="J103" s="82"/>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D104" s="20"/>
@@ -5086,7 +5139,7 @@
         <v>81</v>
       </c>
       <c r="I104" s="22"/>
-      <c r="J104" s="67"/>
+      <c r="J104" s="82"/>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D105" s="20"/>
@@ -5111,7 +5164,7 @@
         <v>73</v>
       </c>
       <c r="I106" s="22"/>
-      <c r="J106" s="67" t="s">
+      <c r="J106" s="82" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5128,7 +5181,7 @@
         <v>73</v>
       </c>
       <c r="I107" s="22"/>
-      <c r="J107" s="67"/>
+      <c r="J107" s="82"/>
     </row>
     <row r="108" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D108" s="20"/>
@@ -5143,7 +5196,7 @@
         <v>73</v>
       </c>
       <c r="I108" s="22"/>
-      <c r="J108" s="67"/>
+      <c r="J108" s="82"/>
     </row>
     <row r="109" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D109" s="20"/>
@@ -5158,7 +5211,7 @@
         <v>73</v>
       </c>
       <c r="I109" s="22"/>
-      <c r="J109" s="67"/>
+      <c r="J109" s="82"/>
     </row>
     <row r="110" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D110" s="20"/>
@@ -5173,7 +5226,7 @@
         <v>73</v>
       </c>
       <c r="I110" s="22"/>
-      <c r="J110" s="67"/>
+      <c r="J110" s="82"/>
     </row>
     <row r="111" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D111" s="20"/>
@@ -5188,7 +5241,7 @@
         <v>73</v>
       </c>
       <c r="I111" s="22"/>
-      <c r="J111" s="67"/>
+      <c r="J111" s="82"/>
     </row>
     <row r="112" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D112" s="20"/>
@@ -5203,7 +5256,7 @@
         <v>73</v>
       </c>
       <c r="I112" s="22"/>
-      <c r="J112" s="67"/>
+      <c r="J112" s="82"/>
     </row>
     <row r="113" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D113" s="20"/>
@@ -5218,7 +5271,7 @@
         <v>73</v>
       </c>
       <c r="I113" s="22"/>
-      <c r="J113" s="67"/>
+      <c r="J113" s="82"/>
     </row>
     <row r="114" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D114" s="20"/>
@@ -5243,7 +5296,7 @@
         <v>73</v>
       </c>
       <c r="I115" s="22"/>
-      <c r="J115" s="67" t="s">
+      <c r="J115" s="82" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5260,7 +5313,7 @@
         <v>73</v>
       </c>
       <c r="I116" s="22"/>
-      <c r="J116" s="67"/>
+      <c r="J116" s="82"/>
     </row>
     <row r="117" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D117" s="20"/>
@@ -5275,7 +5328,7 @@
         <v>73</v>
       </c>
       <c r="I117" s="22"/>
-      <c r="J117" s="67"/>
+      <c r="J117" s="82"/>
     </row>
     <row r="118" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D118" s="20"/>
@@ -5290,7 +5343,7 @@
         <v>73</v>
       </c>
       <c r="I118" s="22"/>
-      <c r="J118" s="67"/>
+      <c r="J118" s="82"/>
     </row>
     <row r="119" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D119" s="20"/>
@@ -5305,7 +5358,7 @@
         <v>73</v>
       </c>
       <c r="I119" s="22"/>
-      <c r="J119" s="67"/>
+      <c r="J119" s="82"/>
     </row>
     <row r="120" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D120" s="20"/>
@@ -5320,7 +5373,7 @@
         <v>73</v>
       </c>
       <c r="I120" s="22"/>
-      <c r="J120" s="67"/>
+      <c r="J120" s="82"/>
     </row>
     <row r="121" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D121" s="21"/>
@@ -5335,7 +5388,7 @@
         <v>73</v>
       </c>
       <c r="I121" s="23"/>
-      <c r="J121" s="67"/>
+      <c r="J121" s="82"/>
     </row>
     <row r="122" spans="4:10" x14ac:dyDescent="0.25">
       <c r="G122" s="39"/>
@@ -5632,13 +5685,13 @@
       <c r="B14" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="75">
         <v>42971</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="75">
         <v>42972</v>
       </c>
     </row>
@@ -5649,9 +5702,9 @@
       <c r="B15" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
     </row>
     <row r="16" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
@@ -5660,9 +5713,9 @@
       <c r="B16" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
     </row>
     <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
@@ -5671,9 +5724,9 @@
       <c r="B17" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
@@ -5682,9 +5735,9 @@
       <c r="B18" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
     </row>
     <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
@@ -5693,9 +5746,9 @@
       <c r="B19" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
     </row>
     <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
@@ -5704,9 +5757,9 @@
       <c r="B20" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
     </row>
     <row r="21" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="49">
@@ -5715,13 +5768,13 @@
       <c r="B21" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="75">
         <v>42969</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="75">
         <v>42975</v>
       </c>
     </row>
@@ -5732,9 +5785,9 @@
       <c r="B22" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
     </row>
     <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
@@ -5743,9 +5796,9 @@
       <c r="B23" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="76"/>
     </row>
     <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
@@ -5754,9 +5807,9 @@
       <c r="B24" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
     </row>
     <row r="25" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
@@ -5765,9 +5818,9 @@
       <c r="B25" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="76"/>
     </row>
     <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="49">
@@ -5776,13 +5829,13 @@
       <c r="B26" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="D26" s="62">
+      <c r="D26" s="75">
         <v>42970</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="75">
         <v>42976</v>
       </c>
     </row>
@@ -5793,9 +5846,9 @@
       <c r="B27" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="49">
@@ -5804,9 +5857,9 @@
       <c r="B28" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="49">
@@ -5815,9 +5868,9 @@
       <c r="B29" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
     </row>
     <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="49">
@@ -5826,9 +5879,9 @@
       <c r="B30" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
     </row>
     <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="49">
@@ -5837,9 +5890,9 @@
       <c r="B31" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
     </row>
     <row r="32" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="49">
@@ -5848,13 +5901,13 @@
       <c r="B32" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="62">
+      <c r="D32" s="75">
         <v>42975</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="75">
         <v>42978</v>
       </c>
     </row>
@@ -5865,9 +5918,9 @@
       <c r="B33" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
     </row>
     <row r="34" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="49">
@@ -5876,9 +5929,9 @@
       <c r="B34" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
     </row>
     <row r="35" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="49">
@@ -5887,9 +5940,9 @@
       <c r="B35" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
     </row>
     <row r="36" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
@@ -5898,9 +5951,9 @@
       <c r="B36" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
     </row>
     <row r="37" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="49">
@@ -5909,9 +5962,9 @@
       <c r="B37" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
     </row>
     <row r="38" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="49">
@@ -5920,9 +5973,9 @@
       <c r="B38" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
     </row>
     <row r="39" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
@@ -5931,9 +5984,9 @@
       <c r="B39" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="49">
@@ -5942,13 +5995,13 @@
       <c r="B40" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="D40" s="62">
+      <c r="D40" s="75">
         <v>42976</v>
       </c>
-      <c r="E40" s="62">
+      <c r="E40" s="75">
         <v>42979</v>
       </c>
     </row>
@@ -5959,9 +6012,9 @@
       <c r="B41" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="49">
@@ -5970,9 +6023,9 @@
       <c r="B42" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="49">
@@ -5981,9 +6034,9 @@
       <c r="B43" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
     </row>
     <row r="44" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="49">
@@ -5992,9 +6045,9 @@
       <c r="B44" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
     </row>
     <row r="45" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="49">
@@ -6003,9 +6056,9 @@
       <c r="B45" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
     </row>
     <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="49">
@@ -6014,9 +6067,9 @@
       <c r="B46" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
     </row>
     <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="49">
@@ -6025,9 +6078,9 @@
       <c r="B47" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
     </row>
     <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="49">
@@ -6036,9 +6089,9 @@
       <c r="B48" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="49">
@@ -6047,13 +6100,13 @@
       <c r="B49" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="D49" s="62">
+      <c r="D49" s="75">
         <v>42977</v>
       </c>
-      <c r="E49" s="62">
+      <c r="E49" s="75">
         <v>42981</v>
       </c>
     </row>
@@ -6064,9 +6117,9 @@
       <c r="B50" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="49">
@@ -6075,9 +6128,9 @@
       <c r="B51" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
     </row>
     <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="49">
@@ -6086,9 +6139,9 @@
       <c r="B52" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="49">
@@ -6097,9 +6150,9 @@
       <c r="B53" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
     </row>
     <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="49">
@@ -6108,9 +6161,9 @@
       <c r="B54" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
     </row>
     <row r="55" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="49">
@@ -6136,13 +6189,13 @@
       <c r="B56" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="D56" s="62">
+      <c r="D56" s="75">
         <v>42978</v>
       </c>
-      <c r="E56" s="62">
+      <c r="E56" s="75">
         <v>42983</v>
       </c>
     </row>
@@ -6153,9 +6206,9 @@
       <c r="B57" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="63"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="76"/>
     </row>
     <row r="58" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="49">
@@ -6164,9 +6217,9 @@
       <c r="B58" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="63"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="63"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
     </row>
     <row r="59" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="49">
@@ -6175,9 +6228,9 @@
       <c r="B59" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="63"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="76"/>
     </row>
     <row r="60" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="49">
@@ -6186,13 +6239,13 @@
       <c r="B60" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="C60" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="D60" s="62">
+      <c r="D60" s="75">
         <v>42979</v>
       </c>
-      <c r="E60" s="62">
+      <c r="E60" s="75">
         <v>42984</v>
       </c>
     </row>
@@ -6203,9 +6256,9 @@
       <c r="B61" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="49">
@@ -6214,9 +6267,9 @@
       <c r="B62" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="49">
@@ -6225,9 +6278,9 @@
       <c r="B63" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="49">
@@ -6236,9 +6289,9 @@
       <c r="B64" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="49">
@@ -6247,9 +6300,9 @@
       <c r="B65" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="49">
@@ -6258,9 +6311,9 @@
       <c r="B66" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="49">
@@ -6269,9 +6322,9 @@
       <c r="B67" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="49">
@@ -6280,13 +6333,13 @@
       <c r="B68" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="63" t="s">
+      <c r="C68" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="D68" s="62">
+      <c r="D68" s="75">
         <v>42979</v>
       </c>
-      <c r="E68" s="62">
+      <c r="E68" s="75">
         <v>42985</v>
       </c>
     </row>
@@ -6297,9 +6350,9 @@
       <c r="B69" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="49">
@@ -6308,9 +6361,9 @@
       <c r="B70" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C70" s="63"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="49">
@@ -6319,9 +6372,9 @@
       <c r="B71" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="63"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="63"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="49">
@@ -6330,9 +6383,9 @@
       <c r="B72" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="49">
@@ -6341,9 +6394,9 @@
       <c r="B73" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C73" s="63"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
     </row>
     <row r="74" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="49">
@@ -6352,9 +6405,9 @@
       <c r="B74" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76"/>
     </row>
     <row r="75" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A75" s="49">
@@ -6363,9 +6416,9 @@
       <c r="B75" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="76"/>
     </row>
     <row r="76" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="49">
@@ -6374,13 +6427,13 @@
       <c r="B76" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="C76" s="63" t="s">
+      <c r="C76" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="D76" s="62">
+      <c r="D76" s="75">
         <v>42981</v>
       </c>
-      <c r="E76" s="62">
+      <c r="E76" s="75">
         <v>42986</v>
       </c>
     </row>
@@ -6391,9 +6444,9 @@
       <c r="B77" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
     </row>
     <row r="78" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="49">
@@ -6402,9 +6455,9 @@
       <c r="B78" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="49">
@@ -6413,9 +6466,9 @@
       <c r="B79" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="49">
@@ -6424,9 +6477,9 @@
       <c r="B80" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
@@ -6435,9 +6488,9 @@
       <c r="B81" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
     </row>
     <row r="82" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A82" s="49">
@@ -6446,9 +6499,9 @@
       <c r="B82" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="C82" s="63"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
     </row>
     <row r="83" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="49">
@@ -6460,7 +6513,7 @@
       <c r="C83" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="D83" s="68">
+      <c r="D83" s="83">
         <v>42986</v>
       </c>
       <c r="E83" s="50">
@@ -6475,7 +6528,7 @@
       <c r="C84" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="D84" s="60"/>
+      <c r="D84" s="73"/>
       <c r="E84" s="57">
         <v>42989</v>
       </c>
@@ -6488,7 +6541,7 @@
       <c r="C85" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="D85" s="60"/>
+      <c r="D85" s="73"/>
       <c r="E85" s="57">
         <v>42990</v>
       </c>
@@ -6501,7 +6554,7 @@
       <c r="C86" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="D86" s="60"/>
+      <c r="D86" s="73"/>
       <c r="E86" s="57">
         <v>42991</v>
       </c>
@@ -6514,7 +6567,7 @@
       <c r="C87" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="D87" s="61"/>
+      <c r="D87" s="74"/>
       <c r="E87" s="57">
         <v>42992</v>
       </c>
@@ -6554,21 +6607,21 @@
     <mergeCell ref="D49:D54"/>
     <mergeCell ref="C56:C59"/>
     <mergeCell ref="D56:D59"/>
-    <mergeCell ref="E49:E54"/>
     <mergeCell ref="C60:C67"/>
     <mergeCell ref="D60:D67"/>
     <mergeCell ref="C68:C75"/>
     <mergeCell ref="D68:D75"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E60:E67"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E49:E54"/>
     <mergeCell ref="E14:E20"/>
     <mergeCell ref="E21:E25"/>
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="E32:E39"/>
     <mergeCell ref="E40:E48"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E60:E67"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="D83:D87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
